--- a/상수격 테이블 데이터(아이템카탈로그,고객,뉴스카탈로그,카테고리).xlsx
+++ b/상수격 테이블 데이터(아이템카탈로그,고객,뉴스카탈로그,카테고리).xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0909m\OneDrive\문서\UnivFile\3_UnivFile_2025\25-2\데이터베이스\팀플\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0909m\OneDrive\문서\GitHub\database-team-project-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="7140" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="7140" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="카테고리" sheetId="1" r:id="rId4"/>
@@ -27,80 +27,791 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="462">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="461">
+  <x:si>
+    <x:t>시계 초도 물량 공개로 관심 집중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>왕조 화폐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CLUMSY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학자 노트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>왕실 일지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구리 램프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고서 신규 입고로 초기 시세 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금속공예품 시장 기대감 하락세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보석 초도 물량 공개로 관심 집중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화폐 신규 입고로 초기 시세 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시계 공급 과잉으로 초기 시세 하락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍바위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>송열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라장작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여망치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오지갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현시소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>천솥단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양베개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백돋보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>곽돛대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방컵라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우고무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강양초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정손톱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심돌멩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위쟁반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구스위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구조각</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조석유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>송통조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유나무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노돋보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서베개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정베개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마쟁반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양스푼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>천시계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍스위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회전 기계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>렌즈 세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최초 제시가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증기 엔진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회중시계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>왕실 예복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금실 자수옷</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이피어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사무라이 검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 반지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전 카메라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필름 카메라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비단 옷</x:t>
+  </x:si>
+  <x:si>
+    <x:t>축제 열쇠고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의식용 단검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유물 돌조각</x:t>
+  </x:si>
+  <x:si>
+    <x:t>왕실 초상화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고급시계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유화 풍경화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기념 주화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMG_ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청동 촛대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풍경화 그림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NCT_KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사찰 경전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서예 족자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>철제 트로피</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고대 서책</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICT_KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입체주의 그림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>루비 반지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기계장치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격 키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진주 브로치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폴라로이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대리석 조각상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유약 그릇</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이올린</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원목 식탁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>궁수의 활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백자 찻잔</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은화 세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>철제 컵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정물화 액자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가죽 갑옷</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기사 장화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은제 접시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청자 항아리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은제 숟가락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은 갑옷</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추상화 그림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청동 헬멧</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SLR 카메라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황동 항아리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종 판매가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRAUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목재 책상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고급 유리 병</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나무시계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나무 항아리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유적 토기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금속공예품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고대 금화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전투 도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도자기 병</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분청 접시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동전 묶음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도자기 컵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>면 의복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고풍 시계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>철제 갑옷</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청동 거울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현대화 작품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태엽 장치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파스텔 풍경화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유물 단지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전통 두루마기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>축하 장식품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUS_KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앤틱 의자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관광 메달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고대 투구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기념 엽서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 신규 입고로 초기 시세 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICT_NAME</x:t>
+  </x:si>
   <x:si>
     <x:t>ITM00094</x:t>
   </x:si>
   <x:si>
-    <x:t>CIM00007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ICT_NAME</x:t>
+    <x:t>NEWS_NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BASE_PRICE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사파이어 목걸이</x:t>
   </x:si>
   <x:si>
     <x:t>ITM00010</x:t>
   </x:si>
   <x:si>
-    <x:t>NEWS_NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BASE_PRICE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00018</x:t>
+    <x:t>장식장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역사서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽시계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서랍장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>왕관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카메라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쌍검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인물화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화폐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기념품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감정가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김식빵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심스위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손바퀴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안물통</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위카메</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황쟁반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변라벨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허칼날</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라종이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>천팔찌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백빗자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노물통</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임우산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권헬멧</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정가마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진가방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노라벨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조부채</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최그릇</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하통조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골동품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배바퀴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현단검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고솥뚜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구물통</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박기둥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>곽가위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심유리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이망치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허스위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박양초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황빗자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도칼날</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장물컵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현기차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윤지갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>송단지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설수레</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백의복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>송부채</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허깃털</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍사기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조시계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고수레</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변붓통</x:t>
+  </x:si>
+  <x:si>
+    <x:t>곽열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우수레</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노쌀독</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오의복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문가위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부처상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우물컵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남사기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백손톱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청동상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이책가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라화분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>석고상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예술품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>천기차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조각상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도자기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플루트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피아노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남기둥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황단도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>철퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신붓통</x:t>
+  </x:si>
+  <x:si>
+    <x:t>롱소드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윤기둥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배양동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임양초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기병상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구바늘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>곽스푼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방의자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>악기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도자기 판매가 급등세, 수집가 몰려</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보석 복원 완료로 감정가 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조각상 진위 논란으로 감정가 급락</x:t>
   </x:si>
   <x:si>
     <x:t>가구 거래 성사, 낙찰가 기록 경신</x:t>
   </x:si>
   <x:si>
-    <x:t>도자기 판매가 급등세, 수집가 몰려</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조각상 진위 논란으로 감정가 급락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사파이어 목걸이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00019</x:t>
+    <x:t>도자기 복원 완료로 감정가 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류 신규 입고로 초기 시세 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금속공예품 복원 완료로 감정가 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골동품 진위 논란으로 감정가 급락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 복원 완료로 감정가 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화폐 진위 논란으로 감정가 급락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고서 복원 완료로 감정가 상승</x:t>
   </x:si>
   <x:si>
     <x:t>무기 거래량 감소로 구매가 하락</x:t>
   </x:si>
   <x:si>
-    <x:t>도자기 복원 완료로 감정가 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보석 복원 완료로 감정가 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고서 복원 완료로 감정가 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금속공예품 복원 완료로 감정가 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골동품 진위 논란으로 감정가 급락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화폐 진위 논란으로 감정가 급락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 복원 완료로 감정가 상승</x:t>
-  </x:si>
-  <x:si>
     <x:t>유물 거래량 감소로 구매가 하락</x:t>
   </x:si>
   <x:si>
@@ -110,1252 +821,565 @@
     <x:t>방어구 진위 논란으로 감정가 급락</x:t>
   </x:si>
   <x:si>
-    <x:t>화폐 신규 입고로 초기 시세 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보석 초도 물량 공개로 관심 집중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류 신규 입고로 초기 시세 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금속공예품 시장 기대감 하락세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시계 초도 물량 공개로 관심 집중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고서 신규 입고로 초기 시세 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시계 공급 과잉으로 초기 시세 하락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 신규 입고로 초기 시세 상승</x:t>
+    <x:t>예술품 고가 낙찰로 화제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가구 고가 낙찰로 화제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그림 고가 낙찰로 화제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고서 고가 낙찰로 화제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 판매 부진, 가격 조정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 고가 낙찰로 화제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시계 판매 부진, 가격 조정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조각상 고가 낙찰로 화제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고서 매입가 하락세 지속</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시계 매입가 하락세 지속</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 매입가 하락세 지속</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카메라 감정가 재조정 예고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골동품 구매 심리 위축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도자기 감정가 재조정 예고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AFFECTED_PRICE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기계장치 감정가 재조정 예고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그림 감정가 재조정 예고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화폐 감정가 재조정 예고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조각상 매입가 하락세 지속</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WELL_COLLECT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>악기 판매 부진, 가격 조정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CATEGORY_KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화폐 시장 기대감 하락세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보석 감정가 재조정 예고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어구 시장 기대감 하락세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카메라 시장 기대감 하락세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가구 매입가 하락세 지속</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고서 감정가 재조정 예고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가구 판매 부진, 가격 조정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기계장치 매입가 하락세 지속</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조각상 거래 성사, 낙찰가 기록 경신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도자기 가치 재평가, 감정가 2배 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시계 전문가 감정 결과 공개, 가치 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카메라 거래가 폭등, 매입 경쟁 치열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기념품 공급 과잉으로 초기 시세 하락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보석 희귀품 발견으로 초기 제시가 급등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보석 전문가 감정 결과 공개, 가치 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기념품 거래 성사, 낙찰가 기록 경신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어구 거래 성사, 낙찰가 기록 경신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조각상 희귀 매물 등장, 매입가 급등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카메라 공급 과잉으로 초기 시세 하락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금속공예품 진위 논란으로 감정가 급락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도자기 공급 과잉으로 초기 시세 하락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금속공예품 판매가 급등세, 수집가 몰려</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도자기 전문가 감정 결과 공개, 가치 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예술품 희귀품 발견으로 초기 제시가 급등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도자기 거래 성사, 낙찰가 기록 경신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유물 전문가 감정 결과 공개, 가치 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금속공예품 가치 재평가, 감정가 2배 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골동품 거래 성사, 낙찰가 기록 경신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시계 거래가 폭등, 매입 경쟁 치열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카메라 경매가 사상 최고가 갱신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골동품 판매가 급등세, 수집가 몰려</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류 거래량 감소로 구매가 하락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조각상 경매가 사상 최고가 갱신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도검 거래가 폭등, 매입 경쟁 치열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유물 복원 완료로 감정가 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도검 진위 논란으로 감정가 급락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가구 거래가 폭등, 매입 경쟁 치열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그림 판매가 급등세, 수집가 몰려</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시계 경매가 사상 최고가 갱신</x:t>
   </x:si>
   <x:si>
     <x:t>유물 초도 물량 공개로 관심 집중</x:t>
   </x:si>
   <x:si>
+    <x:t>고서 판매가 급등세, 수집가 몰려</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기념품 경매가 사상 최고가 갱신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보석 거래 성사, 낙찰가 기록 경신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가구 판매가 급등세, 수집가 몰려</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기계장치 경매가 사상 최고가 갱신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예술품 판매가 급등세, 수집가 몰려</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기념품 신규 입고로 초기 시세 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골동품 거래량 감소로 구매가 하락</x:t>
+  </x:si>
+  <x:si>
     <x:t>시계 신규 입고로 초기 시세 상승</x:t>
   </x:si>
   <x:si>
-    <x:t>기념품 신규 입고로 초기 시세 상승</x:t>
+    <x:t>방어구 복원 완료로 감정가 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예술품 경매가 사상 최고가 갱신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 희귀 매물 등장, 매입가 급등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카메라 판매가 급등세, 수집가 몰려</x:t>
   </x:si>
   <x:si>
     <x:t>유물 희귀 매물 등장, 매입가 급등</x:t>
   </x:si>
   <x:si>
-    <x:t>방어구 복원 완료로 감정가 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 희귀 매물 등장, 매입가 급등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골동품 거래량 감소로 구매가 하락</x:t>
-  </x:si>
-  <x:si>
     <x:t>그림 거래가 폭등, 매입 경쟁 치열</x:t>
   </x:si>
   <x:si>
-    <x:t>ITM00005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카메라 판매가 급등세, 수집가 몰려</x:t>
-  </x:si>
-  <x:si>
     <x:t>유물 판매가 급등세, 수집가 몰려</x:t>
   </x:si>
   <x:si>
-    <x:t>고서 판매가 급등세, 수집가 몰려</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예술품 경매가 사상 최고가 갱신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예술품 판매가 급등세, 수집가 몰려</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기념품 경매가 사상 최고가 갱신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가구 판매가 급등세, 수집가 몰려</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기계장치 경매가 사상 최고가 갱신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보석 거래 성사, 낙찰가 기록 경신</x:t>
-  </x:si>
-  <x:si>
     <x:t>가구 희귀 매물 등장, 매입가 급등</x:t>
   </x:si>
   <x:si>
-    <x:t>가구 거래가 폭등, 매입 경쟁 치열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조각상 경매가 사상 최고가 갱신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류 거래량 감소로 구매가 하락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도검 진위 논란으로 감정가 급락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카메라 경매가 사상 최고가 갱신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골동품 판매가 급등세, 수집가 몰려</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그림 판매가 급등세, 수집가 몰려</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시계 거래가 폭등, 매입 경쟁 치열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도검 거래가 폭등, 매입 경쟁 치열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유물 복원 완료로 감정가 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시계 경매가 사상 최고가 갱신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예술품 고가 낙찰로 화제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가구 고가 낙찰로 화제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조각상 고가 낙찰로 화제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고서 고가 낙찰로 화제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 판매 부진, 가격 조정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 고가 낙찰로 화제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시계 판매 부진, 가격 조정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고서 매입가 하락세 지속</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그림 고가 낙찰로 화제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어구 시장 기대감 하락세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카메라 시장 기대감 하락세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 매입가 하락세 지속</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카메라 감정가 재조정 예고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기계장치 감정가 재조정 예고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>악기 판매 부진, 가격 조정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가구 판매 부진, 가격 조정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고서 감정가 재조정 예고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WELL_COLLECT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그림 감정가 재조정 예고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골동품 구매 심리 위축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시계 매입가 하락세 지속</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도자기 감정가 재조정 예고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화폐 시장 기대감 하락세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화폐 감정가 재조정 예고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AFFECTED_PRICE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조각상 매입가 하락세 지속</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가구 매입가 하락세 지속</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CATEGORY_KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보석 감정가 재조정 예고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기계장치 매입가 하락세 지속</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금속공예품 판매가 급등세, 수집가 몰려</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어구 거래 성사, 낙찰가 기록 경신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기념품 거래 성사, 낙찰가 기록 경신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도자기 전문가 감정 결과 공개, 가치 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유물 전문가 감정 결과 공개, 가치 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시계 전문가 감정 결과 공개, 가치 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기념품 공급 과잉으로 초기 시세 하락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조각상 거래 성사, 낙찰가 기록 경신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예술품 희귀품 발견으로 초기 제시가 급등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조각상 희귀 매물 등장, 매입가 급등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카메라 공급 과잉으로 초기 시세 하락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도자기 공급 과잉으로 초기 시세 하락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카메라 거래가 폭등, 매입 경쟁 치열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보석 희귀품 발견으로 초기 제시가 급등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금속공예품 가치 재평가, 감정가 2배 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금속공예품 진위 논란으로 감정가 급락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골동품 거래 성사, 낙찰가 기록 경신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도자기 가치 재평가, 감정가 2배 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보석 전문가 감정 결과 공개, 가치 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도자기 거래 성사, 낙찰가 기록 경신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>왕실 일지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구리 램프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>왕조 화폐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CLUMSY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학자 노트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NCT_KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ICT_KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사찰 경전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>철제 트로피</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서예 족자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풍경화 그림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입체주의 그림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>루비 반지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기계장치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격 키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IMG_ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기념 주화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진주 브로치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고대 서책</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청동 촛대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>은제 숟가락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가죽 갑옷</x:t>
-  </x:si>
-  <x:si>
-    <x:t>은제 접시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>은 갑옷</x:t>
-  </x:si>
-  <x:si>
-    <x:t>은화 세트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추상화 그림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유약 그릇</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청자 항아리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청동 헬멧</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SLR 카메라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>철제 컵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>궁수의 활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폴라로이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대리석 조각상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이올린</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원목 식탁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>백자 찻잔</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기사 장화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정물화 액자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고대 금화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전투 도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청동 거울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도자기 병</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황동 항아리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분청 접시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>철제 갑옷</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동전 묶음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나무 항아리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종 판매가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FRAUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목재 책상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도자기 컵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유적 토기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고급 유리 병</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금속공예품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>면 의복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고풍 시계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나무시계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현대화 작품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기념 엽서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파스텔 풍경화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고대 투구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전통 두루마기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관광 메달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태엽 장치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유물 단지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>축하 장식품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUS_KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앤틱 의자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회전 기계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회중시계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>왕실 예복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>렌즈 세트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금실 자수옷</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필름 카메라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사무라이 검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>축제 열쇠고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최초 제시가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비단 옷</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증기 엔진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이피어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 반지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전 카메라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유물 돌조각</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리 키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>왕실 초상화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의식용 단검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고급시계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유화 풍경화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강양초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위쟁반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정베개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양스푼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마쟁반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정손톱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조석유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>송통조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍스위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노돋보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>곽돛대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우고무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심돌멩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방컵라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구스위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>백돋보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>천시계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구조각</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유나무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서베개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍바위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>송열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양베개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여망치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오지갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라장작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현시소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>천솥단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노라벨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>천팔찌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고솥뚜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조부채</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권헬멧</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골동품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위카메</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구물통</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황쟁반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배바퀴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심스위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>백빗자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최그릇</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임우산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노물통</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손바퀴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변라벨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하통조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정가마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안물통</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허칼날</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라종이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진가방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현단검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박양초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허스위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>백손톱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>백의복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윤지갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도칼날</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황빗자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>송단지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심유리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조시계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장물컵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설수레</x:t>
-  </x:si>
-  <x:si>
-    <x:t>곽열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현기차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>송부채</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고수레</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허깃털</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍사기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변붓통</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노쌀독</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우물컵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우수레</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오의복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박기둥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>곽가위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문가위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이망치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남사기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부처상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>철퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신붓통</x:t>
-  </x:si>
-  <x:si>
-    <x:t>천기차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윤기둥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배양동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플루트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임양초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이책가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라화분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조각상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황단도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구바늘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기병상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방의자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피아노</x:t>
-  </x:si>
-  <x:si>
-    <x:t>곽스푼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남기둥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>악기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도자기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청동상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>석고상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예술품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>롱소드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽시계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쌍검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기념품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>왕관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서랍장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카메라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장식장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화폐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인물화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감정가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김식빵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역사서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기어</x:t>
+    <x:t>CIM00015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUS_MINUS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유물 구매 심리 위축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00090</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00093</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00087</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00086</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIM00014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00062</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에메랄드 귀걸이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00001</x:t>
   </x:si>
   <x:si>
     <x:t>가구 구매 심리 위축</x:t>
   </x:si>
   <x:si>
-    <x:t>ITM00095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에메랄드 귀걸이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLUS_MINUS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유물 구매 심리 위축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00091</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00090</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00092</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00029</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00093</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00084</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00087</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00033</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00086</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00035</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00089</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00072</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00068</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00058</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00063</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00056</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00062</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00055</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00079</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00081</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIM00014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00057</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00059</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00078</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00080</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00064</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00067</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00048</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00042</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00045</x:t>
+    <x:t>ITM00053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITM00098</x:t>
   </x:si>
   <x:si>
     <x:t>ITM00046</x:t>
@@ -1364,55 +1388,28 @@
     <x:t>ITM00024</x:t>
   </x:si>
   <x:si>
-    <x:t>ITM00021</x:t>
+    <x:t>ITM00041</x:t>
   </x:si>
   <x:si>
     <x:t>ITM00082</x:t>
   </x:si>
   <x:si>
-    <x:t>ITM00023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00041</x:t>
+    <x:t>ITM00044</x:t>
   </x:si>
   <x:si>
     <x:t>ITM00050</x:t>
   </x:si>
   <x:si>
-    <x:t>ITM00043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00047</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00096</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00097</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00052</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITM00044</x:t>
+    <x:t>ITM00099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUS_NAME</x:t>
   </x:si>
   <x:si>
     <x:t>ITM00054</x:t>
   </x:si>
   <x:si>
-    <x:t>ITM00099</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUS_NAME</x:t>
+    <x:t>CATEGORY_NAME</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1520,6 +1517,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1602,6 +1600,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1636,6 +1635,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1680,6 +1680,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1723,6 +1724,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1807,6 +1809,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1827,6 +1830,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1857,6 +1861,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2224,30 +2229,30 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:E21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B4" activeCellId="0" sqref="B4:B4"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D10" activeCellId="0" sqref="D10:D10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.9140625" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="12.76953125" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="14.10546875" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="16.31640625" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="10.9140625" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" t="s">
-        <x:v>212</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>206</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>141</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E1" t="s">
-        <x:v>131</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
@@ -2255,13 +2260,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D2">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>204</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -2269,13 +2274,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D3">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>348</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -2283,13 +2288,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D4">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E4" t="s">
-        <x:v>352</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -2297,13 +2302,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D5">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>175</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
@@ -2311,7 +2316,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
@@ -2319,7 +2324,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
@@ -2327,7 +2332,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>347</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
@@ -2335,7 +2340,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
@@ -2343,7 +2348,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
@@ -2351,7 +2356,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
@@ -2359,7 +2364,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>336</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
@@ -2367,7 +2372,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
@@ -2375,7 +2380,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
@@ -2383,7 +2388,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
@@ -2391,7 +2396,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
@@ -2399,7 +2404,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
@@ -2407,7 +2412,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
@@ -2415,7 +2420,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
@@ -2423,7 +2428,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
@@ -2431,11 +2436,11 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2445,7 +2450,7 @@
   <x:sheetPr codeName="Sheet7" filterMode="1"/>
   <x:dimension ref="A1:G101"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="C9" activeCellId="0" sqref="C9:C9"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2462,25 +2467,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>461</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G1" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
@@ -2488,13 +2493,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>239</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C2">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>381</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E2">
         <x:v>0.0017999999999999999</x:v>
@@ -2511,13 +2516,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>234</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C3">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>380</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="E3">
         <x:v>0.16109999999999999</x:v>
@@ -2534,13 +2539,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>231</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C4">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E4">
         <x:v>0.22869999999999999</x:v>
@@ -2557,13 +2562,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>237</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C5">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>379</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="E5">
         <x:v>0.1094</x:v>
@@ -2580,13 +2585,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>241</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C6">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>377</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="E6">
         <x:v>0.14299999999999999</x:v>
@@ -2603,13 +2608,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>232</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C7">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>373</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E7">
         <x:v>0.38279999999999997</x:v>
@@ -2626,13 +2631,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>225</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>370</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="E8">
         <x:v>0.094799999999999995</x:v>
@@ -2649,13 +2654,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>221</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>379</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="E9">
         <x:v>0.83960000000000001</x:v>
@@ -2672,13 +2677,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>235</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C10">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>373</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E10">
         <x:v>0.57050000000000001</x:v>
@@ -2695,13 +2700,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>224</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C11">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>371</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E11">
         <x:v>0.76580000000000004</x:v>
@@ -2718,13 +2723,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>227</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C12">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>374</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E12">
         <x:v>0.40079999999999999</x:v>
@@ -2741,13 +2746,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>236</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C13">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D13" t="s">
-        <x:v>375</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="E13">
         <x:v>0.50860000000000005</x:v>
@@ -2764,13 +2769,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>219</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C14">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D14" t="s">
-        <x:v>376</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E14">
         <x:v>0.66349999999999998</x:v>
@@ -2787,13 +2792,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>228</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C15">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D15" t="s">
-        <x:v>378</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E15">
         <x:v>0.33389999999999997</x:v>
@@ -2810,13 +2815,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>240</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C16">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D16" t="s">
-        <x:v>380</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="E16">
         <x:v>0.020000000000000001</x:v>
@@ -2833,13 +2838,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>223</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C17">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D17" t="s">
-        <x:v>47</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E17">
         <x:v>0.74709999999999999</x:v>
@@ -2856,13 +2861,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>229</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C18">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D18" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E18">
         <x:v>0.44829999999999998</x:v>
@@ -2879,13 +2884,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>233</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C19">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D19" t="s">
-        <x:v>377</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="E19">
         <x:v>0.0071000000000000008</x:v>
@@ -2902,13 +2907,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" t="s">
-        <x:v>226</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C20">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D20" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E20">
         <x:v>0.82440000000000002</x:v>
@@ -2925,13 +2930,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" t="s">
-        <x:v>230</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C21">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D21" t="s">
-        <x:v>374</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E21">
         <x:v>0.53969999999999996</x:v>
@@ -2948,13 +2953,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" t="s">
-        <x:v>267</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C22">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D22" t="s">
-        <x:v>48</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E22">
         <x:v>0.97370000000000001</x:v>
@@ -2971,13 +2976,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" t="s">
-        <x:v>269</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C23">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D23" t="s">
-        <x:v>378</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E23">
         <x:v>0.34889999999999999</x:v>
@@ -2994,13 +2999,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" t="s">
-        <x:v>250</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C24">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D24" t="s">
-        <x:v>49</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="E24">
         <x:v>0.16520000000000001</x:v>
@@ -3017,13 +3022,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B25" t="s">
-        <x:v>247</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C25">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D25" t="s">
-        <x:v>377</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="E25">
         <x:v>0.76939999999999997</x:v>
@@ -3040,13 +3045,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B26" t="s">
-        <x:v>273</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C26">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D26" t="s">
-        <x:v>49</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="E26">
         <x:v>0.42109999999999997</x:v>
@@ -3063,13 +3068,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B27" t="s">
-        <x:v>259</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C27">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D27" t="s">
-        <x:v>49</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="E27">
         <x:v>0.95320000000000005</x:v>
@@ -3086,13 +3091,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B28" t="s">
-        <x:v>245</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C28">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D28" t="s">
-        <x:v>48</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E28">
         <x:v>0.59350000000000003</x:v>
@@ -3109,13 +3114,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B29" t="s">
-        <x:v>246</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C29">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D29" t="s">
-        <x:v>51</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E29">
         <x:v>0.1555</x:v>
@@ -3132,13 +3137,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B30" t="s">
-        <x:v>251</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C30">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D30" t="s">
-        <x:v>375</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="E30">
         <x:v>0.54620000000000002</x:v>
@@ -3155,13 +3160,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B31" t="s">
-        <x:v>272</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C31">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D31" t="s">
-        <x:v>370</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="E31">
         <x:v>0.68869999999999998</x:v>
@@ -3178,13 +3183,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B32" t="s">
-        <x:v>271</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C32">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D32" t="s">
-        <x:v>54</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="E32">
         <x:v>0.89159999999999995</x:v>
@@ -3201,13 +3206,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B33" t="s">
-        <x:v>294</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C33">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D33" t="s">
-        <x:v>52</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="E33">
         <x:v>0.55889999999999995</x:v>
@@ -3224,13 +3229,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B34" t="s">
-        <x:v>268</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C34">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D34" t="s">
-        <x:v>371</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E34">
         <x:v>0.84870000000000001</x:v>
@@ -3247,13 +3252,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B35" t="s">
-        <x:v>287</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C35">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D35" t="s">
-        <x:v>54</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="E35">
         <x:v>0.50319999999999998</x:v>
@@ -3270,13 +3275,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B36" t="s">
-        <x:v>298</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C36">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D36" t="s">
-        <x:v>373</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E36">
         <x:v>0.96050000000000002</x:v>
@@ -3293,13 +3298,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B37" t="s">
-        <x:v>261</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C37">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D37" t="s">
-        <x:v>370</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="E37">
         <x:v>0.081699999999999995</x:v>
@@ -3316,13 +3321,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B38" t="s">
-        <x:v>242</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C38">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D38" t="s">
-        <x:v>54</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="E38">
         <x:v>0.55400000000000005</x:v>
@@ -3339,13 +3344,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B39" t="s">
-        <x:v>270</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C39">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D39" t="s">
-        <x:v>373</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E39">
         <x:v>0.74319999999999997</x:v>
@@ -3362,13 +3367,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B40" t="s">
-        <x:v>255</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C40">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D40" t="s">
-        <x:v>380</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="E40">
         <x:v>0.97740000000000005</x:v>
@@ -3385,13 +3390,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B41" t="s">
-        <x:v>252</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C41">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D41" t="s">
-        <x:v>53</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E41">
         <x:v>0.17829999999999999</x:v>
@@ -3408,13 +3413,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B42" t="s">
-        <x:v>291</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C42">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D42" t="s">
-        <x:v>47</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E42">
         <x:v>0.59489999999999998</x:v>
@@ -3431,13 +3436,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B43" t="s">
-        <x:v>243</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C43">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D43" t="s">
-        <x:v>51</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E43">
         <x:v>0.88690000000000002</x:v>
@@ -3454,13 +3459,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B44" t="s">
-        <x:v>266</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C44">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D44" t="s">
-        <x:v>376</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E44">
         <x:v>0.80169999999999997</x:v>
@@ -3477,13 +3482,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B45" t="s">
-        <x:v>276</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C45">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D45" t="s">
-        <x:v>379</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="E45">
         <x:v>0.31240000000000001</x:v>
@@ -3500,13 +3505,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B46" t="s">
-        <x:v>301</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C46">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D46" t="s">
-        <x:v>54</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="E46">
         <x:v>0.48099999999999998</x:v>
@@ -3523,13 +3528,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B47" t="s">
-        <x:v>284</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C47">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D47" t="s">
-        <x:v>376</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E47">
         <x:v>0.27360000000000001</x:v>
@@ -3546,13 +3551,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B48" t="s">
-        <x:v>278</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C48">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D48" t="s">
-        <x:v>379</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="E48">
         <x:v>0.0016999999999999998</x:v>
@@ -3569,13 +3574,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B49" t="s">
-        <x:v>304</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C49">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D49" t="s">
-        <x:v>1</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E49">
         <x:v>0.059899999999999998</x:v>
@@ -3592,13 +3597,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B50" t="s">
-        <x:v>296</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C50">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D50" t="s">
-        <x:v>377</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="E50">
         <x:v>0.21870000000000001</x:v>
@@ -3615,13 +3620,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B51" t="s">
-        <x:v>275</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C51">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D51" t="s">
-        <x:v>373</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E51">
         <x:v>0.16020000000000001</x:v>
@@ -3638,13 +3643,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B52" t="s">
-        <x:v>299</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C52">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D52" t="s">
-        <x:v>52</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="E52">
         <x:v>0.63229999999999997</x:v>
@@ -3661,13 +3666,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" t="s">
-        <x:v>302</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C53">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D53" t="s">
-        <x:v>374</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E53">
         <x:v>0.80130000000000001</x:v>
@@ -3684,13 +3689,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" t="s">
-        <x:v>300</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C54">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D54" t="s">
-        <x:v>53</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E54">
         <x:v>0.99839999999999995</x:v>
@@ -3707,13 +3712,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" t="s">
-        <x:v>281</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C55">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D55" t="s">
-        <x:v>375</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="E55">
         <x:v>0.14219999999999999</x:v>
@@ -3730,13 +3735,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" t="s">
-        <x:v>303</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C56">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D56" t="s">
-        <x:v>373</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E56">
         <x:v>0.88060000000000005</x:v>
@@ -3753,13 +3758,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" t="s">
-        <x:v>305</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C57">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D57" t="s">
-        <x:v>381</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E57">
         <x:v>0.38619999999999999</x:v>
@@ -3776,13 +3781,13 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" t="s">
-        <x:v>274</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C58">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D58" t="s">
-        <x:v>381</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E58">
         <x:v>0.053200000000000003</x:v>
@@ -3799,13 +3804,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" t="s">
-        <x:v>288</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C59">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D59" t="s">
-        <x:v>381</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E59">
         <x:v>0.44350000000000001</x:v>
@@ -3822,13 +3827,13 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" t="s">
-        <x:v>277</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C60">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D60" t="s">
-        <x:v>381</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E60">
         <x:v>0.97560000000000002</x:v>
@@ -3845,13 +3850,13 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" t="s">
-        <x:v>297</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C61">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D61" t="s">
-        <x:v>371</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E61">
         <x:v>0.1699</x:v>
@@ -3868,13 +3873,13 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B62" t="s">
-        <x:v>257</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C62">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D62" t="s">
-        <x:v>54</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="E62">
         <x:v>0.2762</x:v>
@@ -3891,13 +3896,13 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B63" t="s">
-        <x:v>238</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C63">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D63" t="s">
-        <x:v>373</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E63">
         <x:v>0.38769999999999999</x:v>
@@ -3914,13 +3919,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B64" t="s">
-        <x:v>263</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C64">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D64" t="s">
-        <x:v>48</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E64">
         <x:v>0.73109999999999997</x:v>
@@ -3937,13 +3942,13 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B65" t="s">
-        <x:v>264</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C65">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D65" t="s">
-        <x:v>378</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E65">
         <x:v>0.47810000000000002</x:v>
@@ -3960,13 +3965,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B66" t="s">
-        <x:v>262</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C66">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D66" t="s">
-        <x:v>377</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="E66">
         <x:v>0.049099999999999999</x:v>
@@ -3983,13 +3988,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B67" t="s">
-        <x:v>265</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C67">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D67" t="s">
-        <x:v>1</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E67">
         <x:v>0.30959999999999999</x:v>
@@ -4006,13 +4011,13 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B68" t="s">
-        <x:v>258</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C68">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D68" t="s">
-        <x:v>54</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="E68">
         <x:v>0.26629999999999998</x:v>
@@ -4029,13 +4034,13 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B69" t="s">
-        <x:v>248</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C69">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D69" t="s">
-        <x:v>47</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E69">
         <x:v>0.79359999999999997</x:v>
@@ -4052,13 +4057,13 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="B70" t="s">
-        <x:v>217</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C70">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D70" t="s">
-        <x:v>371</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E70">
         <x:v>0.7833</x:v>
@@ -4075,13 +4080,13 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="B71" t="s">
-        <x:v>218</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C71">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D71" t="s">
-        <x:v>373</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E71">
         <x:v>0.89580000000000004</x:v>
@@ -4098,13 +4103,13 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B72" t="s">
-        <x:v>220</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C72">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D72" t="s">
-        <x:v>370</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="E72">
         <x:v>0.27989999999999998</x:v>
@@ -4121,13 +4126,13 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B73" t="s">
-        <x:v>256</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C73">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D73" t="s">
-        <x:v>51</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E73">
         <x:v>0.49559999999999998</x:v>
@@ -4144,13 +4149,13 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B74" t="s">
-        <x:v>244</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C74">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D74" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E74">
         <x:v>0.0027999999999999997</x:v>
@@ -4167,13 +4172,13 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B75" t="s">
-        <x:v>254</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C75">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D75" t="s">
-        <x:v>374</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E75">
         <x:v>0.31209999999999999</x:v>
@@ -4190,13 +4195,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B76" t="s">
-        <x:v>285</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C76">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D76" t="s">
-        <x:v>381</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E76">
         <x:v>0.4451</x:v>
@@ -4213,13 +4218,13 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B77" t="s">
-        <x:v>327</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C77">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D77" t="s">
-        <x:v>381</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E77">
         <x:v>0.99739999999999995</x:v>
@@ -4236,13 +4241,13 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B78" t="s">
-        <x:v>317</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C78">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D78" t="s">
-        <x:v>53</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E78">
         <x:v>0.35870000000000002</x:v>
@@ -4259,13 +4264,13 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B79" t="s">
-        <x:v>313</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C79">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D79" t="s">
-        <x:v>371</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E79">
         <x:v>0.26040000000000002</x:v>
@@ -4282,13 +4287,13 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B80" t="s">
-        <x:v>292</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C80">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D80" t="s">
-        <x:v>49</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="E80">
         <x:v>0.23910000000000001</x:v>
@@ -4305,13 +4310,13 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B81" t="s">
-        <x:v>295</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C81">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D81" t="s">
-        <x:v>376</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E81">
         <x:v>0.74080000000000001</x:v>
@@ -4328,13 +4333,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B82" t="s">
-        <x:v>312</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C82">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D82" t="s">
-        <x:v>51</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E82">
         <x:v>0.96460000000000001</x:v>
@@ -4351,13 +4356,13 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B83" t="s">
-        <x:v>316</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C83">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D83" t="s">
-        <x:v>48</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E83">
         <x:v>0.73240000000000005</x:v>
@@ -4374,13 +4379,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B84" t="s">
-        <x:v>325</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C84">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D84" t="s">
-        <x:v>376</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E84">
         <x:v>0.97729999999999995</x:v>
@@ -4397,13 +4402,13 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B85" t="s">
-        <x:v>310</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C85">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D85" t="s">
-        <x:v>381</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E85">
         <x:v>0.0214</x:v>
@@ -4420,13 +4425,13 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B86" t="s">
-        <x:v>286</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C86">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D86" t="s">
-        <x:v>47</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E86">
         <x:v>0.30070000000000002</x:v>
@@ -4443,13 +4448,13 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B87" t="s">
-        <x:v>293</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C87">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D87" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E87">
         <x:v>0.44840000000000002</x:v>
@@ -4466,13 +4471,13 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B88" t="s">
-        <x:v>289</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C88">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D88" t="s">
-        <x:v>380</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="E88">
         <x:v>0.92320000000000002</x:v>
@@ -4489,13 +4494,13 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B89" t="s">
-        <x:v>282</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C89">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D89" t="s">
-        <x:v>431</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="E89">
         <x:v>0.1196</x:v>
@@ -4512,13 +4517,13 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B90" t="s">
-        <x:v>279</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C90">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D90" t="s">
-        <x:v>376</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E90">
         <x:v>0.44119999999999998</x:v>
@@ -4535,13 +4540,13 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B91" t="s">
-        <x:v>290</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C91">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D91" t="s">
-        <x:v>371</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E91">
         <x:v>0.77649999999999997</x:v>
@@ -4558,13 +4563,13 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B92" t="s">
-        <x:v>280</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C92">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D92" t="s">
-        <x:v>375</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="E92">
         <x:v>0.57030000000000003</x:v>
@@ -4581,13 +4586,13 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B93" t="s">
-        <x:v>283</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C93">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D93" t="s">
-        <x:v>51</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E93">
         <x:v>0.77429999999999999</x:v>
@@ -4604,13 +4609,13 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B94" t="s">
-        <x:v>321</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C94">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D94" t="s">
-        <x:v>48</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E94">
         <x:v>0.50539999999999996</x:v>
@@ -4627,13 +4632,13 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B95" t="s">
-        <x:v>320</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C95">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D95" t="s">
-        <x:v>52</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="E95">
         <x:v>0.82820000000000005</x:v>
@@ -4650,13 +4655,13 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B96" t="s">
-        <x:v>306</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C96">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D96" t="s">
-        <x:v>381</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E96">
         <x:v>0.1187</x:v>
@@ -4673,13 +4678,13 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B97" t="s">
-        <x:v>322</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C97">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D97" t="s">
-        <x:v>373</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E97">
         <x:v>0.12330000000000001</x:v>
@@ -4696,13 +4701,13 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B98" t="s">
-        <x:v>311</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C98">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D98" t="s">
-        <x:v>381</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E98">
         <x:v>0.96450000000000002</x:v>
@@ -4719,13 +4724,13 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B99" t="s">
-        <x:v>328</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="C99">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D99" t="s">
-        <x:v>51</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E99">
         <x:v>0.5958</x:v>
@@ -4742,13 +4747,13 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B100" t="s">
-        <x:v>354</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C100">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D100" t="s">
-        <x:v>374</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E100">
         <x:v>0.87429999999999997</x:v>
@@ -4765,13 +4770,13 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B101" t="s">
-        <x:v>318</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C101">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D101" t="s">
-        <x:v>53</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E101">
         <x:v>0.2747</x:v>
@@ -4789,7 +4794,7 @@
       <x:sortCondition descending="0" sortBy="value" ref="A2:A101"/>
     </x:sortState>
   </x:autoFilter>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4799,8 +4804,8 @@
   <x:sheetPr codeName="Sheet1" filterMode="1"/>
   <x:dimension ref="A1:E101"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B77" activeCellId="0" sqref="B77:B77"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C70" activeCellId="0" sqref="C70:C70"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="16.39999999999999857891"/>
@@ -4813,19 +4818,19 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" t="s">
-        <x:v>132</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>4</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>100</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>103</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E1" t="s">
-        <x:v>364</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
@@ -4833,7 +4838,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>35</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C2">
         <x:v>0</x:v>
@@ -4850,7 +4855,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>72</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C3">
         <x:v>1</x:v>
@@ -4867,7 +4872,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>21</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C4">
         <x:v>2</x:v>
@@ -4884,7 +4889,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>29</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C5">
         <x:v>0</x:v>
@@ -4901,7 +4906,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>82</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C6">
         <x:v>3</x:v>
@@ -4918,7 +4923,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>74</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C7">
         <x:v>2</x:v>
@@ -4935,7 +4940,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>97</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C8">
         <x:v>2</x:v>
@@ -4952,7 +4957,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>95</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C9">
         <x:v>1</x:v>
@@ -4969,7 +4974,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>87</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C10">
         <x:v>1</x:v>
@@ -4986,7 +4991,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>78</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C11">
         <x:v>3</x:v>
@@ -5003,7 +5008,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>39</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="C12">
         <x:v>2</x:v>
@@ -5020,7 +5025,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>99</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C13">
         <x:v>2</x:v>
@@ -5037,7 +5042,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>32</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C14">
         <x:v>0</x:v>
@@ -5054,7 +5059,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>22</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C15">
         <x:v>2</x:v>
@@ -5071,7 +5076,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>85</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C16">
         <x:v>0</x:v>
@@ -5088,7 +5093,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>101</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C17">
         <x:v>1</x:v>
@@ -5105,7 +5110,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>90</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="C18">
         <x:v>3</x:v>
@@ -5122,7 +5127,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>70</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C19">
         <x:v>3</x:v>
@@ -5139,7 +5144,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" t="s">
-        <x:v>69</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C20">
         <x:v>3</x:v>
@@ -5156,7 +5161,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" t="s">
-        <x:v>11</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C21">
         <x:v>3</x:v>
@@ -5173,7 +5178,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" t="s">
-        <x:v>20</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C22">
         <x:v>2</x:v>
@@ -5190,7 +5195,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" t="s">
-        <x:v>24</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C23">
         <x:v>1</x:v>
@@ -5207,7 +5212,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" t="s">
-        <x:v>31</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C24">
         <x:v>0</x:v>
@@ -5224,7 +5229,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B25" t="s">
-        <x:v>17</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C25">
         <x:v>2</x:v>
@@ -5241,7 +5246,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B26" t="s">
-        <x:v>58</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C26">
         <x:v>3</x:v>
@@ -5258,7 +5263,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B27" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C27">
         <x:v>0</x:v>
@@ -5275,7 +5280,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B28" t="s">
-        <x:v>26</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="C28">
         <x:v>2</x:v>
@@ -5292,7 +5297,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B29" t="s">
-        <x:v>23</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C29">
         <x:v>2</x:v>
@@ -5309,7 +5314,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B30" t="s">
-        <x:v>16</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C30">
         <x:v>1</x:v>
@@ -5326,7 +5331,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B31" t="s">
-        <x:v>106</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C31">
         <x:v>3</x:v>
@@ -5343,7 +5348,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B32" t="s">
-        <x:v>38</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C32">
         <x:v>1</x:v>
@@ -5360,7 +5365,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B33" t="s">
-        <x:v>73</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C33">
         <x:v>1</x:v>
@@ -5377,7 +5382,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B34" t="s">
-        <x:v>65</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C34">
         <x:v>1</x:v>
@@ -5394,7 +5399,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B35" t="s">
-        <x:v>86</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C35">
         <x:v>0</x:v>
@@ -5411,7 +5416,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B36" t="s">
-        <x:v>66</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C36">
         <x:v>3</x:v>
@@ -5428,7 +5433,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B37" t="s">
-        <x:v>122</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C37">
         <x:v>3</x:v>
@@ -5445,7 +5450,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B38" t="s">
-        <x:v>80</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C38">
         <x:v>3</x:v>
@@ -5462,7 +5467,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B39" t="s">
-        <x:v>94</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C39">
         <x:v>2</x:v>
@@ -5479,7 +5484,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B40" t="s">
-        <x:v>96</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C40">
         <x:v>1</x:v>
@@ -5496,7 +5501,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B41" t="s">
-        <x:v>61</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="C41">
         <x:v>3</x:v>
@@ -5513,7 +5518,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B42" t="s">
-        <x:v>36</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C42">
         <x:v>0</x:v>
@@ -5530,7 +5535,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B43" t="s">
-        <x:v>12</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C43">
         <x:v>3</x:v>
@@ -5547,7 +5552,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B44" t="s">
-        <x:v>108</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C44">
         <x:v>3</x:v>
@@ -5564,7 +5569,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B45" t="s">
-        <x:v>88</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C45">
         <x:v>2</x:v>
@@ -5581,7 +5586,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B46" t="s">
-        <x:v>68</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="C46">
         <x:v>2</x:v>
@@ -5598,7 +5603,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B47" t="s">
-        <x:v>105</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C47">
         <x:v>1</x:v>
@@ -5615,7 +5620,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B48" t="s">
-        <x:v>60</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C48">
         <x:v>3</x:v>
@@ -5632,7 +5637,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B49" t="s">
-        <x:v>40</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C49">
         <x:v>1</x:v>
@@ -5649,7 +5654,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B50" t="s">
-        <x:v>111</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C50">
         <x:v>2</x:v>
@@ -5666,7 +5671,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B51" t="s">
-        <x:v>64</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C51">
         <x:v>1</x:v>
@@ -5683,7 +5688,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B52" t="s">
-        <x:v>76</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C52">
         <x:v>3</x:v>
@@ -5700,7 +5705,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" t="s">
-        <x:v>81</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C53">
         <x:v>3</x:v>
@@ -5717,7 +5722,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C54">
         <x:v>0</x:v>
@@ -5734,7 +5739,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" t="s">
-        <x:v>56</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C55">
         <x:v>3</x:v>
@@ -5751,7 +5756,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" t="s">
-        <x:v>120</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C56">
         <x:v>2</x:v>
@@ -5768,7 +5773,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" t="s">
-        <x:v>67</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C57">
         <x:v>1</x:v>
@@ -5785,7 +5790,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" t="s">
-        <x:v>115</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C58">
         <x:v>1</x:v>
@@ -5802,7 +5807,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" t="s">
-        <x:v>84</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="C59">
         <x:v>3</x:v>
@@ -5819,7 +5824,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" t="s">
-        <x:v>113</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C60">
         <x:v>3</x:v>
@@ -5836,7 +5841,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" t="s">
-        <x:v>114</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C61">
         <x:v>0</x:v>
@@ -5853,7 +5858,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B62" t="s">
-        <x:v>116</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C62">
         <x:v>0</x:v>
@@ -5870,7 +5875,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B63" t="s">
-        <x:v>57</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="C63">
         <x:v>3</x:v>
@@ -5887,7 +5892,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B64" t="s">
-        <x:v>41</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C64">
         <x:v>1</x:v>
@@ -5904,7 +5909,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B65" t="s">
-        <x:v>109</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C65">
         <x:v>2</x:v>
@@ -5921,7 +5926,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B66" t="s">
-        <x:v>71</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="C66">
         <x:v>3</x:v>
@@ -5938,7 +5943,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B67" t="s">
-        <x:v>25</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C67">
         <x:v>1</x:v>
@@ -5955,7 +5960,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B68" t="s">
-        <x:v>13</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C68">
         <x:v>2</x:v>
@@ -5972,7 +5977,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B69" t="s">
-        <x:v>98</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="C69">
         <x:v>0</x:v>
@@ -5989,7 +5994,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="B70" t="s">
-        <x:v>79</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C70">
         <x:v>3</x:v>
@@ -6006,7 +6011,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="B71" t="s">
-        <x:v>118</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C71">
         <x:v>1</x:v>
@@ -6023,7 +6028,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B72" t="s">
-        <x:v>34</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C72">
         <x:v>0</x:v>
@@ -6040,7 +6045,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B73" t="s">
-        <x:v>19</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C73">
         <x:v>2</x:v>
@@ -6057,7 +6062,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B74" t="s">
-        <x:v>30</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C74">
         <x:v>0</x:v>
@@ -6074,7 +6079,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B75" t="s">
-        <x:v>117</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="C75">
         <x:v>0</x:v>
@@ -6091,7 +6096,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B76" t="s">
-        <x:v>124</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C76">
         <x:v>2</x:v>
@@ -6108,7 +6113,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B77" t="s">
-        <x:v>123</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C77">
         <x:v>2</x:v>
@@ -6125,7 +6130,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B78" t="s">
-        <x:v>77</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C78">
         <x:v>3</x:v>
@@ -6142,7 +6147,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B79" t="s">
-        <x:v>92</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C79">
         <x:v>2</x:v>
@@ -6159,7 +6164,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B80" t="s">
-        <x:v>357</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="C80">
         <x:v>1</x:v>
@@ -6176,7 +6181,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B81" t="s">
-        <x:v>112</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C81">
         <x:v>0</x:v>
@@ -6193,7 +6198,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B82" t="s">
-        <x:v>102</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C82">
         <x:v>1</x:v>
@@ -6210,7 +6215,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B83" t="s">
-        <x:v>121</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C83">
         <x:v>2</x:v>
@@ -6227,7 +6232,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B84" t="s">
-        <x:v>75</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C84">
         <x:v>3</x:v>
@@ -6244,7 +6249,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B85" t="s">
-        <x:v>89</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C85">
         <x:v>2</x:v>
@@ -6261,7 +6266,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B86" t="s">
-        <x:v>110</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C86">
         <x:v>2</x:v>
@@ -6278,7 +6283,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B87" t="s">
-        <x:v>125</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C87">
         <x:v>3</x:v>
@@ -6295,7 +6300,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B88" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C88">
         <x:v>0</x:v>
@@ -6312,7 +6317,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B89" t="s">
-        <x:v>91</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C89">
         <x:v>3</x:v>
@@ -6329,7 +6334,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B90" t="s">
-        <x:v>62</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C90">
         <x:v>3</x:v>
@@ -6346,7 +6351,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B91" t="s">
-        <x:v>367</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C91">
         <x:v>1</x:v>
@@ -6363,7 +6368,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B92" t="s">
-        <x:v>63</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C92">
         <x:v>3</x:v>
@@ -6380,7 +6385,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B93" t="s">
-        <x:v>59</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C93">
         <x:v>3</x:v>
@@ -6397,7 +6402,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B94" t="s">
-        <x:v>83</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C94">
         <x:v>1</x:v>
@@ -6414,7 +6419,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B95" t="s">
-        <x:v>37</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C95">
         <x:v>0</x:v>
@@ -6431,7 +6436,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B96" t="s">
-        <x:v>107</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C96">
         <x:v>3</x:v>
@@ -6448,7 +6453,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B97" t="s">
-        <x:v>119</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C97">
         <x:v>0</x:v>
@@ -6465,7 +6470,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B98" t="s">
-        <x:v>55</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C98">
         <x:v>3</x:v>
@@ -6482,7 +6487,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B99" t="s">
-        <x:v>104</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C99">
         <x:v>2</x:v>
@@ -6499,7 +6504,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B100" t="s">
-        <x:v>42</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C100">
         <x:v>1</x:v>
@@ -6516,7 +6521,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B101" t="s">
-        <x:v>18</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C101">
         <x:v>2</x:v>
@@ -6534,7 +6539,7 @@
       <x:sortCondition descending="0" sortBy="value" ref="A2:A101"/>
     </x:sortState>
   </x:autoFilter>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -6558,19 +6563,19 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D1" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="E1" t="s">
         <x:v>133</x:v>
-      </x:c>
-      <x:c r="B1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
@@ -6578,10 +6583,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>139</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>0</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D2">
         <x:v>1</x:v>
@@ -6595,7 +6600,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>14</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C3" t="s">
         <x:v>401</x:v>
@@ -6612,10 +6617,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>362</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>358</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="D4">
         <x:v>1</x:v>
@@ -6629,10 +6634,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>144</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>446</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="D5">
         <x:v>1</x:v>
@@ -6646,10 +6651,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>209</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>390</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="D6">
         <x:v>1</x:v>
@@ -6663,10 +6668,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>145</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>50</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D7">
         <x:v>2</x:v>
@@ -6680,10 +6685,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>126</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>391</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D8">
         <x:v>2</x:v>
@@ -6697,10 +6702,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>130</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>457</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="D9">
         <x:v>2</x:v>
@@ -6714,10 +6719,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>355</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>422</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="D10">
         <x:v>2</x:v>
@@ -6731,10 +6736,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>134</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>404</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="D11">
         <x:v>2</x:v>
@@ -6748,10 +6753,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>168</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>394</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D12">
         <x:v>3</x:v>
@@ -6765,10 +6770,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>147</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>414</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="D13">
         <x:v>3</x:v>
@@ -6782,10 +6787,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>180</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>408</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="D14">
         <x:v>3</x:v>
@@ -6799,10 +6804,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>157</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>411</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="D15">
         <x:v>3</x:v>
@@ -6816,10 +6821,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>174</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>3</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D16">
         <x:v>3</x:v>
@@ -6833,10 +6838,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>137</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>387</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="D17">
         <x:v>4</x:v>
@@ -6850,10 +6855,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>213</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>455</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="D18">
         <x:v>4</x:v>
@@ -6867,10 +6872,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>165</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C19" t="s">
-        <x:v>8</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D19">
         <x:v>4</x:v>
@@ -6884,10 +6889,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" t="s">
-        <x:v>138</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C20" t="s">
-        <x:v>413</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="D20">
         <x:v>4</x:v>
@@ -6901,10 +6906,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" t="s">
-        <x:v>136</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C21" t="s">
-        <x:v>409</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="D21">
         <x:v>4</x:v>
@@ -6918,10 +6923,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" t="s">
-        <x:v>337</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C22" t="s">
-        <x:v>45</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D22">
         <x:v>5</x:v>
@@ -6935,10 +6940,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" t="s">
-        <x:v>308</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C23" t="s">
-        <x:v>46</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D23">
         <x:v>5</x:v>
@@ -6952,10 +6957,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" t="s">
-        <x:v>167</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C24" t="s">
-        <x:v>438</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="D24">
         <x:v>5</x:v>
@@ -6969,10 +6974,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B25" t="s">
-        <x:v>309</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C25" t="s">
-        <x:v>416</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="D25">
         <x:v>5</x:v>
@@ -6986,10 +6991,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B26" t="s">
-        <x:v>158</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C26" t="s">
-        <x:v>433</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="D26">
         <x:v>5</x:v>
@@ -7003,10 +7008,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B27" t="s">
-        <x:v>172</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C27" t="s">
-        <x:v>44</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="D27">
         <x:v>6</x:v>
@@ -7020,10 +7025,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B28" t="s">
-        <x:v>148</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C28" t="s">
-        <x:v>363</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D28">
         <x:v>6</x:v>
@@ -7037,10 +7042,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B29" t="s">
-        <x:v>150</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C29" t="s">
-        <x:v>403</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="D29">
         <x:v>6</x:v>
@@ -7054,10 +7059,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B30" t="s">
-        <x:v>155</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C30" t="s">
-        <x:v>434</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="D30">
         <x:v>6</x:v>
@@ -7071,10 +7076,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B31" t="s">
-        <x:v>164</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C31" t="s">
-        <x:v>456</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="D31">
         <x:v>6</x:v>
@@ -7088,10 +7093,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B32" t="s">
-        <x:v>166</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C32" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="D32">
         <x:v>7</x:v>
@@ -7105,10 +7110,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B33" t="s">
-        <x:v>151</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C33" t="s">
-        <x:v>366</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="D33">
         <x:v>7</x:v>
@@ -7122,10 +7127,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B34" t="s">
-        <x:v>173</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C34" t="s">
-        <x:v>10</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D34">
         <x:v>7</x:v>
@@ -7139,10 +7144,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B35" t="s">
-        <x:v>128</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C35" t="s">
-        <x:v>440</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="D35">
         <x:v>7</x:v>
@@ -7156,7 +7161,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B36" t="s">
-        <x:v>143</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C36" t="s">
         <x:v>459</x:v>
@@ -7173,10 +7178,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B37" t="s">
-        <x:v>149</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C37" t="s">
-        <x:v>429</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="D37">
         <x:v>8</x:v>
@@ -7190,10 +7195,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B38" t="s">
-        <x:v>170</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C38" t="s">
-        <x:v>369</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="D38">
         <x:v>8</x:v>
@@ -7207,10 +7212,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B39" t="s">
-        <x:v>135</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C39" t="s">
-        <x:v>410</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="D39">
         <x:v>8</x:v>
@@ -7224,10 +7229,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B40" t="s">
-        <x:v>127</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C40" t="s">
-        <x:v>435</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="D40">
         <x:v>8</x:v>
@@ -7241,10 +7246,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B41" t="s">
-        <x:v>146</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C41" t="s">
-        <x:v>420</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="D41">
         <x:v>8</x:v>
@@ -7258,10 +7263,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B42" t="s">
-        <x:v>154</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C42" t="s">
-        <x:v>452</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="D42">
         <x:v>9</x:v>
@@ -7275,10 +7280,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B43" t="s">
-        <x:v>163</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C43" t="s">
-        <x:v>393</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="D43">
         <x:v>9</x:v>
@@ -7292,10 +7297,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B44" t="s">
-        <x:v>171</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C44" t="s">
-        <x:v>460</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="D44">
         <x:v>9</x:v>
@@ -7309,10 +7314,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B45" t="s">
-        <x:v>169</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C45" t="s">
-        <x:v>15</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D45">
         <x:v>9</x:v>
@@ -7326,10 +7331,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B46" t="s">
-        <x:v>153</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C46" t="s">
-        <x:v>436</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="D46">
         <x:v>9</x:v>
@@ -7343,10 +7348,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B47" t="s">
-        <x:v>161</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C47" t="s">
-        <x:v>449</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="D47">
         <x:v>10</x:v>
@@ -7360,10 +7365,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B48" t="s">
-        <x:v>326</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C48" t="s">
-        <x:v>419</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="D48">
         <x:v>10</x:v>
@@ -7377,10 +7382,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B49" t="s">
-        <x:v>331</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C49" t="s">
-        <x:v>402</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="D49">
         <x:v>10</x:v>
@@ -7394,10 +7399,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B50" t="s">
-        <x:v>333</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C50" t="s">
-        <x:v>396</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="D50">
         <x:v>10</x:v>
@@ -7411,10 +7416,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B51" t="s">
-        <x:v>314</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C51" t="s">
-        <x:v>458</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="D51">
         <x:v>10</x:v>
@@ -7428,7 +7433,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B52" t="s">
-        <x:v>216</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C52" t="s">
         <x:v>398</x:v>
@@ -7445,10 +7450,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" t="s">
-        <x:v>187</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C53" t="s">
-        <x:v>425</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="D53">
         <x:v>11</x:v>
@@ -7462,10 +7467,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" t="s">
-        <x:v>351</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C54" t="s">
-        <x:v>427</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="D54">
         <x:v>11</x:v>
@@ -7479,10 +7484,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" t="s">
-        <x:v>185</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C55" t="s">
-        <x:v>368</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D55">
         <x:v>11</x:v>
@@ -7496,10 +7501,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" t="s">
-        <x:v>152</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C56" t="s">
-        <x:v>365</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="D56">
         <x:v>11</x:v>
@@ -7513,10 +7518,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" t="s">
-        <x:v>334</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C57" t="s">
-        <x:v>407</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="D57">
         <x:v>12</x:v>
@@ -7530,10 +7535,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" t="s">
-        <x:v>332</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C58" t="s">
-        <x:v>359</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="D58">
         <x:v>12</x:v>
@@ -7547,10 +7552,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" t="s">
-        <x:v>160</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C59" t="s">
-        <x:v>6</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D59">
         <x:v>12</x:v>
@@ -7564,10 +7569,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" t="s">
-        <x:v>307</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C60" t="s">
-        <x:v>385</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="D60">
         <x:v>12</x:v>
@@ -7581,10 +7586,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" t="s">
-        <x:v>324</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C61" t="s">
-        <x:v>442</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="D61">
         <x:v>12</x:v>
@@ -7598,10 +7603,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B62" t="s">
-        <x:v>188</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C62" t="s">
-        <x:v>400</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="D62">
         <x:v>13</x:v>
@@ -7615,10 +7620,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B63" t="s">
-        <x:v>192</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C63" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="D63">
         <x:v>13</x:v>
@@ -7632,10 +7637,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B64" t="s">
-        <x:v>341</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C64" t="s">
-        <x:v>389</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="D64">
         <x:v>13</x:v>
@@ -7649,10 +7654,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B65" t="s">
-        <x:v>179</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C65" t="s">
-        <x:v>388</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="D65">
         <x:v>13</x:v>
@@ -7666,10 +7671,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B66" t="s">
-        <x:v>211</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C66" t="s">
-        <x:v>448</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="D66">
         <x:v>13</x:v>
@@ -7683,10 +7688,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B67" t="s">
-        <x:v>202</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C67" t="s">
-        <x:v>445</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="D67">
         <x:v>14</x:v>
@@ -7700,10 +7705,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B68" t="s">
-        <x:v>343</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C68" t="s">
-        <x:v>406</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="D68">
         <x:v>14</x:v>
@@ -7717,10 +7722,10 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B69" t="s">
-        <x:v>339</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C69" t="s">
-        <x:v>454</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="D69">
         <x:v>14</x:v>
@@ -7734,10 +7739,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="B70" t="s">
-        <x:v>208</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C70" t="s">
-        <x:v>405</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="D70">
         <x:v>14</x:v>
@@ -7751,10 +7756,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="B71" t="s">
-        <x:v>214</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C71" t="s">
-        <x:v>453</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="D71">
         <x:v>14</x:v>
@@ -7768,10 +7773,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B72" t="s">
-        <x:v>205</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C72" t="s">
-        <x:v>424</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="D72">
         <x:v>15</x:v>
@@ -7785,10 +7790,10 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B73" t="s">
-        <x:v>198</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C73" t="s">
-        <x:v>9</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D73">
         <x:v>15</x:v>
@@ -7802,10 +7807,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B74" t="s">
-        <x:v>189</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C74" t="s">
-        <x:v>439</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="D74">
         <x:v>15</x:v>
@@ -7819,10 +7824,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B75" t="s">
-        <x:v>182</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C75" t="s">
-        <x:v>360</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="D75">
         <x:v>15</x:v>
@@ -7836,10 +7841,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B76" t="s">
-        <x:v>200</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C76" t="s">
-        <x:v>450</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="D76">
         <x:v>15</x:v>
@@ -7853,10 +7858,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B77" t="s">
-        <x:v>197</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C77" t="s">
-        <x:v>437</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="D77">
         <x:v>16</x:v>
@@ -7870,10 +7875,10 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B78" t="s">
-        <x:v>338</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C78" t="s">
-        <x:v>430</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="D78">
         <x:v>16</x:v>
@@ -7887,10 +7892,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B79" t="s">
-        <x:v>184</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C79" t="s">
-        <x:v>423</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="D79">
         <x:v>16</x:v>
@@ -7904,10 +7909,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B80" t="s">
-        <x:v>215</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C80" t="s">
-        <x:v>428</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="D80">
         <x:v>16</x:v>
@@ -7921,10 +7926,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B81" t="s">
-        <x:v>183</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C81" t="s">
-        <x:v>441</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="D81">
         <x:v>16</x:v>
@@ -7938,10 +7943,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B82" t="s">
-        <x:v>201</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C82" t="s">
-        <x:v>7</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D82">
         <x:v>17</x:v>
@@ -7955,10 +7960,10 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B83" t="s">
-        <x:v>159</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C83" t="s">
-        <x:v>43</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="D83">
         <x:v>17</x:v>
@@ -7972,10 +7977,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B84" t="s">
-        <x:v>156</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C84" t="s">
-        <x:v>386</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="D84">
         <x:v>17</x:v>
@@ -7989,10 +7994,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B85" t="s">
-        <x:v>210</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C85" t="s">
-        <x:v>412</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="D85">
         <x:v>17</x:v>
@@ -8006,10 +8011,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B86" t="s">
-        <x:v>199</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C86" t="s">
-        <x:v>372</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="D86">
         <x:v>17</x:v>
@@ -8023,10 +8028,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B87" t="s">
-        <x:v>177</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C87" t="s">
-        <x:v>383</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="D87">
         <x:v>18</x:v>
@@ -8040,10 +8045,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B88" t="s">
-        <x:v>195</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C88" t="s">
-        <x:v>417</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="D88">
         <x:v>18</x:v>
@@ -8057,10 +8062,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B89" t="s">
-        <x:v>345</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C89" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="D89">
         <x:v>18</x:v>
@@ -8074,10 +8079,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B90" t="s">
-        <x:v>342</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C90" t="s">
-        <x:v>426</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="D90">
         <x:v>18</x:v>
@@ -8091,10 +8096,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B91" t="s">
-        <x:v>162</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C91" t="s">
-        <x:v>395</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="D91">
         <x:v>18</x:v>
@@ -8108,10 +8113,10 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B92" t="s">
-        <x:v>356</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C92" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="D92">
         <x:v>19</x:v>
@@ -8125,10 +8130,10 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B93" t="s">
-        <x:v>207</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C93" t="s">
-        <x:v>421</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="D93">
         <x:v>19</x:v>
@@ -8142,10 +8147,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B94" t="s">
-        <x:v>196</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C94" t="s">
-        <x:v>444</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="D94">
         <x:v>19</x:v>
@@ -8159,10 +8164,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B95" t="s">
-        <x:v>191</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C95" t="s">
-        <x:v>361</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="D95">
         <x:v>19</x:v>
@@ -8176,10 +8181,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B96" t="s">
-        <x:v>349</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C96" t="s">
-        <x:v>392</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="D96">
         <x:v>19</x:v>
@@ -8193,10 +8198,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B97" t="s">
-        <x:v>190</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C97" t="s">
-        <x:v>418</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="D97">
         <x:v>20</x:v>
@@ -8210,10 +8215,10 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B98" t="s">
-        <x:v>186</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C98" t="s">
-        <x:v>443</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="D98">
         <x:v>20</x:v>
@@ -8227,10 +8232,10 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B99" t="s">
-        <x:v>203</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C99" t="s">
-        <x:v>397</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="D99">
         <x:v>20</x:v>
@@ -8244,7 +8249,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B100" t="s">
-        <x:v>178</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C100" t="s">
         <x:v>399</x:v>
@@ -8261,10 +8266,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B101" t="s">
-        <x:v>193</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C101" t="s">
-        <x:v>451</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="D101">
         <x:v>20</x:v>
@@ -8279,7 +8284,7 @@
       <x:sortCondition descending="0" sortBy="value" ref="A2:A101"/>
     </x:sortState>
   </x:autoFilter>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>